--- a/Zadanie3.xlsx
+++ b/Zadanie3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucia\Desktop\FIIT\7.Semester\VAVJS\VAVJS_z3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B940F1ED-654F-4969-8908-5B92E993E26D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3798D76F-84AF-49E2-A1C0-84D0BD7FB2DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B0AF4D09-7CE6-4730-8E9E-E4599CFB75CF}"/>
   </bookViews>
@@ -207,7 +207,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -216,10 +216,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -538,8 +538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D41119B-36CF-4D14-83A1-132A8BB36976}">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -566,46 +566,46 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>1</v>
       </c>
     </row>
@@ -621,35 +621,35 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="33" x14ac:dyDescent="0.35">
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <v>1</v>
       </c>
     </row>
@@ -657,17 +657,17 @@
       <c r="B12" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="6"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
     </row>
     <row r="14" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B14" s="1">
@@ -681,24 +681,24 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="33" x14ac:dyDescent="0.35">
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="49.5" x14ac:dyDescent="0.35">
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="3">
         <v>4</v>
       </c>
     </row>
@@ -714,35 +714,35 @@
       </c>
     </row>
     <row r="18" spans="2:4" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="20" spans="2:4" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="2">
         <v>1</v>
       </c>
     </row>
